--- a/Antico 상품리스트.xlsx
+++ b/Antico 상품리스트.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_sts\AnticoProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99466922-FA86-4E00-91B1-6D46291D70C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-26520" yWindow="1605" windowWidth="21840" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>상품번호</t>
   </si>
@@ -40,44 +49,10 @@
     <t>참조사이트</t>
   </si>
   <si>
-    <t>일회용 마스크 50매 면 입체 패션 블랙 검정 3D</t>
-  </si>
-  <si>
     <t>//gdimg.gmarket.co.kr/1767553019/still/600?ver=1584590558</t>
   </si>
   <si>
     <t>http://ai.esmplus.com/seojungkorea/yoon_A/y567_1m/1_all_01.jpg</t>
-  </si>
-  <si>
-    <t>Specific Item Info
-Item condition
-새상품
-VAT exemption
-과세상품
-Receipt issurance
-발행가능 - 신용카드 전표, 온라인 현금영수증
-Business type
-사업자 판매자
-Brand
-HERC
-Country of manufacture
-아시아 중국
-Product name &amp; Model number
-상세페이지 참조
-About permits
-해당없음
-Country of Manufacture / Origin
-중국
-Manufacturer / Importer
-이한선생활과학/(주)서정코리아
-Related contacts
-㈜서정코리아/031-947-1721
-Estimated delivery time(in Korea)
-1일
-Others</t>
-  </si>
-  <si>
-    <t>패션마스크</t>
   </si>
   <si>
     <t>free</t>
@@ -204,34 +179,651 @@
   <si>
     <t>http://www.tmon.co.kr/deal/3221901158?NaPm=ct%3Dkaxsnqog%7Cci%3D5a3e0cba4a8af725635e2837f09fd419544c6a6e%7Ctr%3Dslsl%7Csn%3D221844%7Chk%3D252de4fe700cec7e49853bc7c00c30db96bc94e3&amp;utm_source=naver&amp;utm_medium=affiliate&amp;utm_term=72093_1008&amp;utm_content=&amp;utm_campaign=META_%EB%84%A4%EC%9D%B4%EB%B2%84%EC%A7%80%EC%8B%9D%EC%87%BC%ED%95%91</t>
   </si>
+  <si>
+    <t>g001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>g002</t>
+  </si>
+  <si>
+    <t>g003</t>
+  </si>
+  <si>
+    <t>g004</t>
+  </si>
+  <si>
+    <t>g005</t>
+  </si>
+  <si>
+    <r>
+      <t>[HERC]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일회용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블랙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3D</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션마스크</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific Item Info
+Item condition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">새상품
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VAT exemption
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">과세상품
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Receipt issurance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발행가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신용카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">현금영수증
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Business type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사업자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">판매자
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Brand
+HERC
+Country of manufacture
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아시아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중국
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Product name &amp; Model number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">참조
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">About permits
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해당없음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Country of Manufacture / Origin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중국
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Manufacturer / Importer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이한선생활과학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">서정코리아
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Related contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>㈜서정코리아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/031-947-1721
+Estimated delivery time(in Korea)
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Others</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,51 +831,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -473,29 +1068,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="51.71"/>
-    <col customWidth="1" min="3" max="3" width="87.86"/>
-    <col customWidth="1" min="4" max="4" width="86.0"/>
-    <col customWidth="1" min="5" max="5" width="47.71"/>
-    <col customWidth="1" min="6" max="6" width="21.0"/>
-    <col customWidth="1" min="7" max="7" width="23.14"/>
-    <col customWidth="1" min="9" max="9" width="354.29"/>
+    <col min="1" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="87.85546875" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="354.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,165 +1124,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="4">
+        <v>19900</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4">
-        <v>19900.0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>19500</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4">
-        <v>19500.0</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11900</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4">
-        <v>11900.0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="H6" s="4">
+        <v>15900</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4">
-        <v>15900.0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="I2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="I3"/>
-    <hyperlink r:id="rId5" ref="I4"/>
-    <hyperlink r:id="rId6" ref="C5"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="I5"/>
-    <hyperlink r:id="rId9" ref="C6"/>
-    <hyperlink r:id="rId10" ref="D6"/>
-    <hyperlink r:id="rId11" ref="I6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>